--- a/Documentation/TimeAccounting_EECS448project.xlsx
+++ b/Documentation/TimeAccounting_EECS448project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miria\Desktop\eecs448\448_Project_1\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D53D7DEA-A832-4448-A958-252D415688B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED5E1EB-0834-44AA-9DAA-88BFFE7FD83A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9405" yWindow="1238" windowWidth="12938" windowHeight="12067" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="150" windowWidth="11625" windowHeight="13950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -134,7 +134,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="167" formatCode="[h]:mm"/>
+    <numFmt numFmtId="165" formatCode="[h]:mm"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -392,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -432,7 +432,20 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -440,20 +453,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="46" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -671,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="53" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="K4" zoomScale="127" zoomScaleNormal="53" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -685,18 +686,18 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41"/>
+      <c r="C1" s="54"/>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2"/>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="41"/>
+      <c r="G1" s="54"/>
       <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
@@ -717,28 +718,28 @@
         <v>8</v>
       </c>
       <c r="Q1" s="8"/>
-      <c r="R1" s="44" t="s">
+      <c r="R1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="46">
+      <c r="S1" s="59">
         <f>R3+R4+R5+R6+R7+R8+R9+R10+R11+R12+R13</f>
-        <v>1.6076388888888891</v>
+        <v>2.6701388888888888</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="43"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
@@ -769,11 +770,11 @@
       <c r="Q2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A3" s="58">
+      <c r="A3" s="50">
         <v>44238</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -804,13 +805,13 @@
       <c r="O3" s="16"/>
       <c r="P3" s="17"/>
       <c r="Q3" s="17"/>
-      <c r="R3" s="55">
+      <c r="R3" s="47">
         <f t="shared" ref="R3:R7" si="0">(E3-D3)+(I3-H3)+(K3-J3)+(M3-L3)+(O3-N3)+(Q3-P3)</f>
         <v>0.14583333333333337</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A4" s="58">
+      <c r="A4" s="50">
         <v>44239</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -835,13 +836,13 @@
       <c r="O4" s="16"/>
       <c r="P4" s="17"/>
       <c r="Q4" s="17"/>
-      <c r="R4" s="55">
+      <c r="R4" s="47">
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A5" s="58">
+      <c r="A5" s="50">
         <v>44240</v>
       </c>
       <c r="B5" s="10"/>
@@ -860,13 +861,13 @@
       <c r="O5" s="16"/>
       <c r="P5" s="17"/>
       <c r="Q5" s="17"/>
-      <c r="R5" s="55">
+      <c r="R5" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A6" s="58">
+      <c r="A6" s="50">
         <v>44241</v>
       </c>
       <c r="B6" s="10"/>
@@ -885,13 +886,13 @@
       <c r="O6" s="16"/>
       <c r="P6" s="17"/>
       <c r="Q6" s="17"/>
-      <c r="R6" s="55">
+      <c r="R6" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A7" s="58">
+      <c r="A7" s="50">
         <v>44242</v>
       </c>
       <c r="B7" s="12" t="s">
@@ -916,13 +917,13 @@
       <c r="O7" s="16"/>
       <c r="P7" s="17"/>
       <c r="Q7" s="17"/>
-      <c r="R7" s="55">
+      <c r="R7" s="47">
         <f t="shared" si="0"/>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A8" s="58">
+      <c r="A8" s="50">
         <v>44243</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -947,13 +948,13 @@
       <c r="O8" s="16"/>
       <c r="P8" s="17"/>
       <c r="Q8" s="17"/>
-      <c r="R8" s="55">
+      <c r="R8" s="47">
         <f>(E8-D8)+(G8-F8)+(I8-H8)+(K8-J8)+(M8-L8)+(O8-N8)+(Q8-P8)</f>
         <v>8.333333333333337E-2</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="48" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -986,15 +987,15 @@
       <c r="M9" s="15"/>
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
-      <c r="P9" s="17"/>
+      <c r="P9" s="22"/>
       <c r="Q9" s="17"/>
-      <c r="R9" s="55">
+      <c r="R9" s="47">
         <f t="shared" ref="R9:R13" si="1">(E9-D9)+(I9-H9)+(K9-J9)+(M9-L9)+(O9-N9)+(Q9-P9)</f>
         <v>0.33333333333333326</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A10" s="58">
+      <c r="A10" s="50">
         <v>44245</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -1033,63 +1034,71 @@
       <c r="Q10" s="22">
         <v>0.54166666666666663</v>
       </c>
-      <c r="R10" s="55">
+      <c r="R10" s="47">
         <f>(E10-D10)+(I10-H10)</f>
         <v>0.17013888888888895</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A11" s="58">
+      <c r="A11" s="50">
         <v>44246</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
-      <c r="F11" s="59" t="s">
+      <c r="F11" s="51" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="10"/>
-      <c r="H11" s="47">
+      <c r="H11" s="39">
         <v>0.41666666666666669</v>
       </c>
-      <c r="I11" s="47">
+      <c r="I11" s="39">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J11" s="60">
+      <c r="J11" s="52">
         <v>0.41666666666666669</v>
       </c>
-      <c r="K11" s="60">
+      <c r="K11" s="52">
         <v>0.625</v>
       </c>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
+      <c r="L11" s="60">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="M11" s="60">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="N11" s="61">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="O11" s="61">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="P11" s="22">
         <v>0.375</v>
       </c>
       <c r="Q11" s="22">
         <v>0.625</v>
       </c>
-      <c r="R11" s="55">
+      <c r="R11" s="47">
         <f>(E11-D11)+(I11-H11)+(K11-J11)+(M11-L11)+(O11-N11)+(Q11-P11)</f>
-        <v>0.75</v>
+        <v>1.0416666666666665</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A12" s="58">
+      <c r="A12" s="50">
         <v>44247</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="51" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="18">
-        <v>0.54166666666666663</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="E12" s="18">
-        <v>0.58333333333333337</v>
+        <v>0.5625</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -1097,19 +1106,31 @@
       <c r="I12" s="13"/>
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="55">
+      <c r="L12" s="60">
+        <v>0.5625</v>
+      </c>
+      <c r="M12" s="60">
+        <v>0.75</v>
+      </c>
+      <c r="N12" s="61">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="O12" s="61">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="P12" s="22">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="Q12" s="22">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="R12" s="47">
         <f t="shared" si="1"/>
-        <v>4.1666666666666741E-2</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A13" s="58">
+      <c r="A13" s="50">
         <v>44248</v>
       </c>
       <c r="B13" s="10"/>
@@ -1128,7 +1149,7 @@
       <c r="O13" s="16"/>
       <c r="P13" s="17"/>
       <c r="Q13" s="17"/>
-      <c r="R13" s="55">
+      <c r="R13" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1149,9 +1170,9 @@
         <v>21</v>
       </c>
       <c r="R16" s="27"/>
-      <c r="S16" s="49">
+      <c r="S16" s="41">
         <f>(Q3-P3)+(Q4-P4)+(Q5-P5)+(Q6-P6)+(Q7-P7)+(Q8-P8)+(Q9-P9)+(Q10-P10)+(Q11-P11)+(Q12-P12)+(Q13-P13)+(E3-D3)+(E4-D4)+(E5-D5)+(E6-D6)+(E7-D7)+(E8-D8)+(E9-D9)+(E10-D10)+(E11-D11)+(E12-D12)+(E13-D13)</f>
-        <v>0.87847222222222221</v>
+        <v>1.0138888888888888</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="14.25" customHeight="1">
@@ -1170,9 +1191,9 @@
         <v>23</v>
       </c>
       <c r="R17" s="31"/>
-      <c r="S17" s="50">
+      <c r="S17" s="42">
         <f>(O3-N3)+(O4-N4)+(O5-N5)+(O6-N6)+(O7-N7)+(O8-N8)+(O9-N9)+(O10-N10)+(O11-N11)+(O12-N12)+(O13-N13)+(E3-D3)+(E4-D4)+(E5-D5)+(E6-D6)+(E7-D7)+(E8-D8)+(E9-D9)+(E10-D10)+(E11-D11)+(E12-D12)+(E13-D13)</f>
-        <v>0.46180555555555558</v>
+        <v>1.0868055555555554</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="14.25" customHeight="1">
@@ -1183,9 +1204,9 @@
         <v>25</v>
       </c>
       <c r="R18" s="33"/>
-      <c r="S18" s="51">
+      <c r="S18" s="43">
         <f>(M3-L3)+(M4-L4)+(M5-L5)+(M6-L6)+(M7-L7)+(M8-L8)+(M9-L9)+(M10-L10)+(M11-L11)+(M12-L12)+(M13-L13)+(E3-D3)+(E4-D4)+(E5-D5)+(E6-D6)+(E7-D7)+(E8-D8)+(E9-D9)+(E10-D10)+(E11-D11)+(E12-D12)+(E13-D13)</f>
-        <v>0.46180555555555558</v>
+        <v>0.70138888888888884</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="14.25" customHeight="1">
@@ -1193,9 +1214,9 @@
         <v>26</v>
       </c>
       <c r="R19" s="34"/>
-      <c r="S19" s="52">
+      <c r="S19" s="44">
         <f>(K3-J3)+(K4-J4)+(K5-J5)+(K6-J6)+(K7-J7)+(K8-J8)+(K9-J9)+(K10-J10)+(K11-J11)+(K12-J12)+(K13-J13)+(E3-D3)+(E4-D4)+(E5-D5)+(E6-D6)+(E7-D7)+(E8-D8)+(E9-D9)+(E10-D10)+(E11-D11)+(E12-D12)+(E13-D13)</f>
-        <v>0.89930555555555558</v>
+        <v>0.86805555555555547</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="14.25" customHeight="1">
@@ -1203,9 +1224,9 @@
         <v>27</v>
       </c>
       <c r="R20" s="35"/>
-      <c r="S20" s="48">
+      <c r="S20" s="40">
         <f>(I3-H3)+(I4-H4)+(I5-H5)+(I6-H6)+(I7-H7)+(I8-H8)+(I9-H9)+(I10-H10)+(I11-H11)+(I12-H12)+(I13-H13)+(E3-D3)+(E4-D4)+(E5-D5)+(E6-D6)+(E7-D7)+(E8-D8)+(E9-D9)+(E10-D10)+(E11-D11)+(E12-D12)+(E13-D13)</f>
-        <v>1.0451388888888891</v>
+        <v>1.0138888888888888</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="14.25" customHeight="1">
@@ -1216,9 +1237,9 @@
     </row>
     <row r="22" spans="1:19" ht="14.25" customHeight="1">
       <c r="R22" s="38"/>
-      <c r="S22" s="54">
+      <c r="S22" s="46">
         <f>(E3-D3)+(E4-D4)+(E5-D5)+(E6-D6)+(E7-D7)+(E8-D8)+(E9-D9)+(E10-D10)+(E11-D11)+(E12-D12)+(E13-D13)</f>
-        <v>0.46180555555555558</v>
+        <v>0.43055555555555547</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="14.25" customHeight="1">
@@ -1232,9 +1253,9 @@
         <v>21</v>
       </c>
       <c r="R24" s="27"/>
-      <c r="S24" s="49">
+      <c r="S24" s="41">
         <f>(Q3-P3)+(Q4-P4)+(Q5-P5)+(Q6-P6)+(Q7-P7)+(Q8-P8)+(Q9-P9)+(Q10-P10)+(Q11-P11)+(Q12-P12)+(Q13-P13)</f>
-        <v>0.41666666666666663</v>
+        <v>0.58333333333333326</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="14.25" customHeight="1">
@@ -1242,9 +1263,9 @@
         <v>23</v>
       </c>
       <c r="R25" s="31"/>
-      <c r="S25" s="31">
+      <c r="S25" s="42">
         <f>(O3-N3)+(O4-N4)+(O5-N5)+(O6-N6)+(O7-N7)+(O8-N8)+(O9-N9)+(O10-N10)+(O11-N11)+(O12-N12)+(O13-N13)</f>
-        <v>0</v>
+        <v>0.65625</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="14.25" customHeight="1">
@@ -1252,9 +1273,9 @@
         <v>25</v>
       </c>
       <c r="R26" s="33"/>
-      <c r="S26" s="39">
+      <c r="S26" s="43">
         <f>(M3-L3)+(M4-L4)+(M5-L5)+(M6-L6)+(M7-L7)+(M8-L8)+(M9-L9)+(M10-L10)+(M11-L11)+(M12-L12)+(M13-L13)</f>
-        <v>0</v>
+        <v>0.27083333333333326</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="14.25" customHeight="1">
@@ -1262,7 +1283,7 @@
         <v>26</v>
       </c>
       <c r="R27" s="34"/>
-      <c r="S27" s="52">
+      <c r="S27" s="44">
         <f>(K3-J3)+(K4-J4)+(K5-J5)+(K6-J6)+(K7-J7)+(K8-J8)+(K9-J9)+(K10-J10)+(K11-J11)+(K12-J12)+(K13-J13)</f>
         <v>0.4375</v>
       </c>
@@ -1272,7 +1293,7 @@
         <v>27</v>
       </c>
       <c r="R28" s="35"/>
-      <c r="S28" s="53">
+      <c r="S28" s="45">
         <f>(I3-H3)+(I4-H4)+(I5-H5)+(I6-H6)+(I7-H7)+(I8-H8)+(I9-H9)+(I10-H10)+(I11-H11)+(I12-H12)+(I13-H13)</f>
         <v>0.58333333333333348</v>
       </c>

--- a/Documentation/TimeAccounting_EECS448project.xlsx
+++ b/Documentation/TimeAccounting_EECS448project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miria\Desktop\eecs448\448_Project_1\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mingyoungjeng/Downloads/448_Project_1/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D53D7DEA-A832-4448-A958-252D415688B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E480FACC-FFCC-244F-B5D1-7C4CD976DCF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9405" yWindow="1238" windowWidth="12938" windowHeight="12067" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -134,7 +134,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="167" formatCode="[h]:mm"/>
+    <numFmt numFmtId="165" formatCode="[h]:mm"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -433,6 +433,20 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -440,20 +454,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="46" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -671,32 +671,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="53" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="53" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.25" customWidth="1"/>
-    <col min="2" max="26" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="2" max="26" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41"/>
+      <c r="C1" s="55"/>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2"/>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="41"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
@@ -717,28 +717,28 @@
         <v>8</v>
       </c>
       <c r="Q1" s="8"/>
-      <c r="R1" s="44" t="s">
+      <c r="R1" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="46">
+      <c r="S1" s="60">
         <f>R3+R4+R5+R6+R7+R8+R9+R10+R11+R12+R13</f>
-        <v>1.6076388888888891</v>
+        <v>2.0243055555555558</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="57"/>
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="43"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
@@ -769,11 +769,11 @@
       <c r="Q2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A3" s="58">
+      <c r="A3" s="51">
         <v>44238</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -804,13 +804,13 @@
       <c r="O3" s="16"/>
       <c r="P3" s="17"/>
       <c r="Q3" s="17"/>
-      <c r="R3" s="55">
+      <c r="R3" s="48">
         <f t="shared" ref="R3:R7" si="0">(E3-D3)+(I3-H3)+(K3-J3)+(M3-L3)+(O3-N3)+(Q3-P3)</f>
         <v>0.14583333333333337</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A4" s="58">
+      <c r="A4" s="51">
         <v>44239</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -835,13 +835,13 @@
       <c r="O4" s="16"/>
       <c r="P4" s="17"/>
       <c r="Q4" s="17"/>
-      <c r="R4" s="55">
+      <c r="R4" s="48">
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A5" s="58">
+      <c r="A5" s="51">
         <v>44240</v>
       </c>
       <c r="B5" s="10"/>
@@ -860,13 +860,13 @@
       <c r="O5" s="16"/>
       <c r="P5" s="17"/>
       <c r="Q5" s="17"/>
-      <c r="R5" s="55">
+      <c r="R5" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A6" s="58">
+      <c r="A6" s="51">
         <v>44241</v>
       </c>
       <c r="B6" s="10"/>
@@ -885,13 +885,13 @@
       <c r="O6" s="16"/>
       <c r="P6" s="17"/>
       <c r="Q6" s="17"/>
-      <c r="R6" s="55">
+      <c r="R6" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A7" s="58">
+      <c r="A7" s="51">
         <v>44242</v>
       </c>
       <c r="B7" s="12" t="s">
@@ -916,13 +916,13 @@
       <c r="O7" s="16"/>
       <c r="P7" s="17"/>
       <c r="Q7" s="17"/>
-      <c r="R7" s="55">
+      <c r="R7" s="48">
         <f t="shared" si="0"/>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A8" s="58">
+      <c r="A8" s="51">
         <v>44243</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -947,13 +947,13 @@
       <c r="O8" s="16"/>
       <c r="P8" s="17"/>
       <c r="Q8" s="17"/>
-      <c r="R8" s="55">
+      <c r="R8" s="48">
         <f>(E8-D8)+(G8-F8)+(I8-H8)+(K8-J8)+(M8-L8)+(O8-N8)+(Q8-P8)</f>
         <v>8.333333333333337E-2</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="49" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -988,13 +988,13 @@
       <c r="O9" s="16"/>
       <c r="P9" s="17"/>
       <c r="Q9" s="17"/>
-      <c r="R9" s="55">
+      <c r="R9" s="48">
         <f t="shared" ref="R9:R13" si="1">(E9-D9)+(I9-H9)+(K9-J9)+(M9-L9)+(O9-N9)+(Q9-P9)</f>
         <v>0.33333333333333326</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A10" s="58">
+      <c r="A10" s="51">
         <v>44245</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -1033,33 +1033,33 @@
       <c r="Q10" s="22">
         <v>0.54166666666666663</v>
       </c>
-      <c r="R10" s="55">
+      <c r="R10" s="48">
         <f>(E10-D10)+(I10-H10)</f>
         <v>0.17013888888888895</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A11" s="58">
+      <c r="A11" s="51">
         <v>44246</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
-      <c r="F11" s="59" t="s">
+      <c r="F11" s="52" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="10"/>
-      <c r="H11" s="47">
+      <c r="H11" s="40">
         <v>0.41666666666666669</v>
       </c>
-      <c r="I11" s="47">
+      <c r="I11" s="40">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J11" s="60">
+      <c r="J11" s="53">
         <v>0.41666666666666669</v>
       </c>
-      <c r="K11" s="60">
+      <c r="K11" s="53">
         <v>0.625</v>
       </c>
       <c r="L11" s="15"/>
@@ -1072,16 +1072,16 @@
       <c r="Q11" s="22">
         <v>0.625</v>
       </c>
-      <c r="R11" s="55">
+      <c r="R11" s="48">
         <f>(E11-D11)+(I11-H11)+(K11-J11)+(M11-L11)+(O11-N11)+(Q11-P11)</f>
         <v>0.75</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A12" s="58">
+      <c r="A12" s="51">
         <v>44247</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="52" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="10"/>
@@ -1095,21 +1095,25 @@
       <c r="G12" s="10"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
+      <c r="J12" s="53">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="K12" s="53">
+        <v>0.625</v>
+      </c>
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>
       <c r="P12" s="17"/>
       <c r="Q12" s="17"/>
-      <c r="R12" s="55">
+      <c r="R12" s="48">
         <f t="shared" si="1"/>
-        <v>4.1666666666666741E-2</v>
+        <v>0.25000000000000006</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A13" s="58">
+      <c r="A13" s="51">
         <v>44248</v>
       </c>
       <c r="B13" s="10"/>
@@ -1120,17 +1124,21 @@
       <c r="G13" s="10"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
+      <c r="J13" s="53">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="K13" s="53">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
       <c r="P13" s="17"/>
       <c r="Q13" s="17"/>
-      <c r="R13" s="55">
+      <c r="R13" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.20833333333333331</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="14.25" customHeight="1">
@@ -1149,7 +1157,7 @@
         <v>21</v>
       </c>
       <c r="R16" s="27"/>
-      <c r="S16" s="49">
+      <c r="S16" s="42">
         <f>(Q3-P3)+(Q4-P4)+(Q5-P5)+(Q6-P6)+(Q7-P7)+(Q8-P8)+(Q9-P9)+(Q10-P10)+(Q11-P11)+(Q12-P12)+(Q13-P13)+(E3-D3)+(E4-D4)+(E5-D5)+(E6-D6)+(E7-D7)+(E8-D8)+(E9-D9)+(E10-D10)+(E11-D11)+(E12-D12)+(E13-D13)</f>
         <v>0.87847222222222221</v>
       </c>
@@ -1170,7 +1178,7 @@
         <v>23</v>
       </c>
       <c r="R17" s="31"/>
-      <c r="S17" s="50">
+      <c r="S17" s="43">
         <f>(O3-N3)+(O4-N4)+(O5-N5)+(O6-N6)+(O7-N7)+(O8-N8)+(O9-N9)+(O10-N10)+(O11-N11)+(O12-N12)+(O13-N13)+(E3-D3)+(E4-D4)+(E5-D5)+(E6-D6)+(E7-D7)+(E8-D8)+(E9-D9)+(E10-D10)+(E11-D11)+(E12-D12)+(E13-D13)</f>
         <v>0.46180555555555558</v>
       </c>
@@ -1183,7 +1191,7 @@
         <v>25</v>
       </c>
       <c r="R18" s="33"/>
-      <c r="S18" s="51">
+      <c r="S18" s="44">
         <f>(M3-L3)+(M4-L4)+(M5-L5)+(M6-L6)+(M7-L7)+(M8-L8)+(M9-L9)+(M10-L10)+(M11-L11)+(M12-L12)+(M13-L13)+(E3-D3)+(E4-D4)+(E5-D5)+(E6-D6)+(E7-D7)+(E8-D8)+(E9-D9)+(E10-D10)+(E11-D11)+(E12-D12)+(E13-D13)</f>
         <v>0.46180555555555558</v>
       </c>
@@ -1193,9 +1201,9 @@
         <v>26</v>
       </c>
       <c r="R19" s="34"/>
-      <c r="S19" s="52">
+      <c r="S19" s="45">
         <f>(K3-J3)+(K4-J4)+(K5-J5)+(K6-J6)+(K7-J7)+(K8-J8)+(K9-J9)+(K10-J10)+(K11-J11)+(K12-J12)+(K13-J13)+(E3-D3)+(E4-D4)+(E5-D5)+(E6-D6)+(E7-D7)+(E8-D8)+(E9-D9)+(E10-D10)+(E11-D11)+(E12-D12)+(E13-D13)</f>
-        <v>0.89930555555555558</v>
+        <v>1.3159722222222221</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="14.25" customHeight="1">
@@ -1203,7 +1211,7 @@
         <v>27</v>
       </c>
       <c r="R20" s="35"/>
-      <c r="S20" s="48">
+      <c r="S20" s="41">
         <f>(I3-H3)+(I4-H4)+(I5-H5)+(I6-H6)+(I7-H7)+(I8-H8)+(I9-H9)+(I10-H10)+(I11-H11)+(I12-H12)+(I13-H13)+(E3-D3)+(E4-D4)+(E5-D5)+(E6-D6)+(E7-D7)+(E8-D8)+(E9-D9)+(E10-D10)+(E11-D11)+(E12-D12)+(E13-D13)</f>
         <v>1.0451388888888891</v>
       </c>
@@ -1216,7 +1224,7 @@
     </row>
     <row r="22" spans="1:19" ht="14.25" customHeight="1">
       <c r="R22" s="38"/>
-      <c r="S22" s="54">
+      <c r="S22" s="47">
         <f>(E3-D3)+(E4-D4)+(E5-D5)+(E6-D6)+(E7-D7)+(E8-D8)+(E9-D9)+(E10-D10)+(E11-D11)+(E12-D12)+(E13-D13)</f>
         <v>0.46180555555555558</v>
       </c>
@@ -1232,7 +1240,7 @@
         <v>21</v>
       </c>
       <c r="R24" s="27"/>
-      <c r="S24" s="49">
+      <c r="S24" s="42">
         <f>(Q3-P3)+(Q4-P4)+(Q5-P5)+(Q6-P6)+(Q7-P7)+(Q8-P8)+(Q9-P9)+(Q10-P10)+(Q11-P11)+(Q12-P12)+(Q13-P13)</f>
         <v>0.41666666666666663</v>
       </c>
@@ -1262,9 +1270,9 @@
         <v>26</v>
       </c>
       <c r="R27" s="34"/>
-      <c r="S27" s="52">
+      <c r="S27" s="45">
         <f>(K3-J3)+(K4-J4)+(K5-J5)+(K6-J6)+(K7-J7)+(K8-J8)+(K9-J9)+(K10-J10)+(K11-J11)+(K12-J12)+(K13-J13)</f>
-        <v>0.4375</v>
+        <v>0.85416666666666652</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="14.25" customHeight="1">
@@ -1272,7 +1280,7 @@
         <v>27</v>
       </c>
       <c r="R28" s="35"/>
-      <c r="S28" s="53">
+      <c r="S28" s="46">
         <f>(I3-H3)+(I4-H4)+(I5-H5)+(I6-H6)+(I7-H7)+(I8-H8)+(I9-H9)+(I10-H10)+(I11-H11)+(I12-H12)+(I13-H13)</f>
         <v>0.58333333333333348</v>
       </c>

--- a/Documentation/TimeAccounting_EECS448project.xlsx
+++ b/Documentation/TimeAccounting_EECS448project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miria\Desktop\eecs448\448_Project_1\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mingyoungjeng/Downloads/448_Project_1/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED5E1EB-0834-44AA-9DAA-88BFFE7FD83A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0BFB06-3B69-A341-90A6-7CDD8F0F1C1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="150" windowWidth="11625" windowHeight="13950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -446,6 +446,8 @@
     <xf numFmtId="164" fontId="1" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -453,8 +455,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="46" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -672,32 +672,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K4" zoomScale="127" zoomScaleNormal="53" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" zoomScale="127" zoomScaleNormal="53" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.25" customWidth="1"/>
-    <col min="2" max="26" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="2" max="26" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="54"/>
+      <c r="C1" s="56"/>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2"/>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="54"/>
+      <c r="G1" s="56"/>
       <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
@@ -718,28 +718,28 @@
         <v>8</v>
       </c>
       <c r="Q1" s="8"/>
-      <c r="R1" s="57" t="s">
+      <c r="R1" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="59">
+      <c r="S1" s="61">
         <f>R3+R4+R5+R6+R7+R8+R9+R10+R11+R12+R13</f>
-        <v>2.6701388888888888</v>
+        <v>3.1284722222222223</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1">
       <c r="A2" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="58"/>
       <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
@@ -770,8 +770,8 @@
       <c r="Q2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1">
       <c r="A3" s="50">
@@ -1063,16 +1063,16 @@
       <c r="K11" s="52">
         <v>0.625</v>
       </c>
-      <c r="L11" s="60">
+      <c r="L11" s="53">
         <v>0.70833333333333337</v>
       </c>
-      <c r="M11" s="60">
+      <c r="M11" s="53">
         <v>0.79166666666666663</v>
       </c>
-      <c r="N11" s="61">
+      <c r="N11" s="54">
         <v>0.70833333333333337</v>
       </c>
-      <c r="O11" s="61">
+      <c r="O11" s="54">
         <v>0.91666666666666663</v>
       </c>
       <c r="P11" s="22">
@@ -1104,18 +1104,22 @@
       <c r="G12" s="10"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="60">
+      <c r="J12" s="52">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="K12" s="52">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L12" s="53">
         <v>0.5625</v>
       </c>
-      <c r="M12" s="60">
+      <c r="M12" s="53">
         <v>0.75</v>
       </c>
-      <c r="N12" s="61">
+      <c r="N12" s="54">
         <v>0.41666666666666669</v>
       </c>
-      <c r="O12" s="61">
+      <c r="O12" s="54">
         <v>0.86458333333333337</v>
       </c>
       <c r="P12" s="22">
@@ -1126,7 +1130,7 @@
       </c>
       <c r="R12" s="47">
         <f t="shared" si="1"/>
-        <v>0.8125</v>
+        <v>1.0208333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="14.25" customHeight="1">
@@ -1141,8 +1145,12 @@
       <c r="G13" s="10"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
+      <c r="J13" s="52">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="K13" s="52">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
       <c r="N13" s="16"/>
@@ -1151,7 +1159,7 @@
       <c r="Q13" s="17"/>
       <c r="R13" s="47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="14.25" customHeight="1">
@@ -1216,7 +1224,7 @@
       <c r="R19" s="34"/>
       <c r="S19" s="44">
         <f>(K3-J3)+(K4-J4)+(K5-J5)+(K6-J6)+(K7-J7)+(K8-J8)+(K9-J9)+(K10-J10)+(K11-J11)+(K12-J12)+(K13-J13)+(E3-D3)+(E4-D4)+(E5-D5)+(E6-D6)+(E7-D7)+(E8-D8)+(E9-D9)+(E10-D10)+(E11-D11)+(E12-D12)+(E13-D13)</f>
-        <v>0.86805555555555547</v>
+        <v>1.3263888888888888</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="14.25" customHeight="1">
@@ -1285,7 +1293,7 @@
       <c r="R27" s="34"/>
       <c r="S27" s="44">
         <f>(K3-J3)+(K4-J4)+(K5-J5)+(K6-J6)+(K7-J7)+(K8-J8)+(K9-J9)+(K10-J10)+(K11-J11)+(K12-J12)+(K13-J13)</f>
-        <v>0.4375</v>
+        <v>0.89583333333333326</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="14.25" customHeight="1">

--- a/Documentation/TimeAccounting_EECS448project.xlsx
+++ b/Documentation/TimeAccounting_EECS448project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mingyoungjeng/Downloads/448_Project_1/Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miria\Desktop\eecs448\448_Project_1\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0BFB06-3B69-A341-90A6-7CDD8F0F1C1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F813B036-CDE7-4BFA-BE5C-C9525891A459}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10500" yWindow="1177" windowWidth="11625" windowHeight="13950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
   <si>
     <t>TEAM 02</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>Wednesday, February 17, 2021</t>
+  </si>
+  <si>
+    <t>Styling + framework</t>
+  </si>
+  <si>
+    <t>Framework+ touchups</t>
   </si>
 </sst>
 </file>
@@ -392,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -455,6 +461,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="46" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -672,14 +679,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="127" zoomScaleNormal="53" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="93" zoomScaleNormal="53" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" customWidth="1"/>
-    <col min="2" max="26" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.1875" customWidth="1"/>
+    <col min="2" max="26" width="7.6875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.25" customHeight="1">
@@ -723,7 +730,7 @@
       </c>
       <c r="S1" s="61">
         <f>R3+R4+R5+R6+R7+R8+R9+R10+R11+R12+R13</f>
-        <v>3.1284722222222223</v>
+        <v>4.4493055555555561</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1">
@@ -985,13 +992,17 @@
       </c>
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
+      <c r="N9" s="54">
+        <v>0.75</v>
+      </c>
+      <c r="O9" s="54">
+        <v>0.77083333333333337</v>
+      </c>
       <c r="P9" s="22"/>
       <c r="Q9" s="17"/>
       <c r="R9" s="47">
         <f t="shared" ref="R9:R13" si="1">(E9-D9)+(I9-H9)+(K9-J9)+(M9-L9)+(O9-N9)+(Q9-P9)</f>
-        <v>0.33333333333333326</v>
+        <v>0.35416666666666663</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="14.25" customHeight="1">
@@ -1100,10 +1111,16 @@
       <c r="E12" s="18">
         <v>0.5625</v>
       </c>
-      <c r="F12" s="10"/>
+      <c r="F12" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="G12" s="10"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
+      <c r="H12" s="39">
+        <v>0.375</v>
+      </c>
+      <c r="I12" s="39">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="J12" s="52">
         <v>0.45833333333333331</v>
       </c>
@@ -1130,36 +1147,60 @@
       </c>
       <c r="R12" s="47">
         <f t="shared" si="1"/>
-        <v>1.0208333333333333</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="14.25" customHeight="1">
       <c r="A13" s="50">
         <v>44248</v>
       </c>
-      <c r="B13" s="10"/>
+      <c r="B13" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="10"/>
+      <c r="D13" s="18">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E13" s="18">
+        <v>0.77916666666666667</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="G13" s="10"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
+      <c r="H13" s="39">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I13" s="39">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="J13" s="52">
         <v>0.54166666666666663</v>
       </c>
       <c r="K13" s="52">
         <v>0.79166666666666663</v>
       </c>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c r="L13" s="53">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="M13" s="53">
+        <v>0.75</v>
+      </c>
+      <c r="N13" s="54">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="O13" s="54">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="P13" s="22">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="Q13" s="62">
+        <v>0.8125</v>
+      </c>
       <c r="R13" s="47">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>1.1333333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="14.25" customHeight="1">
@@ -1180,7 +1221,7 @@
       <c r="R16" s="27"/>
       <c r="S16" s="41">
         <f>(Q3-P3)+(Q4-P4)+(Q5-P5)+(Q6-P6)+(Q7-P7)+(Q8-P8)+(Q9-P9)+(Q10-P10)+(Q11-P11)+(Q12-P12)+(Q13-P13)+(E3-D3)+(E4-D4)+(E5-D5)+(E6-D6)+(E7-D7)+(E8-D8)+(E9-D9)+(E10-D10)+(E11-D11)+(E12-D12)+(E13-D13)</f>
-        <v>1.0138888888888888</v>
+        <v>1.1888888888888887</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="14.25" customHeight="1">
@@ -1201,7 +1242,7 @@
       <c r="R17" s="31"/>
       <c r="S17" s="42">
         <f>(O3-N3)+(O4-N4)+(O5-N5)+(O6-N6)+(O7-N7)+(O8-N8)+(O9-N9)+(O10-N10)+(O11-N11)+(O12-N12)+(O13-N13)+(E3-D3)+(E4-D4)+(E5-D5)+(E6-D6)+(E7-D7)+(E8-D8)+(E9-D9)+(E10-D10)+(E11-D11)+(E12-D12)+(E13-D13)</f>
-        <v>1.0868055555555554</v>
+        <v>1.2409722222222221</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="14.25" customHeight="1">
@@ -1214,7 +1255,7 @@
       <c r="R18" s="33"/>
       <c r="S18" s="43">
         <f>(M3-L3)+(M4-L4)+(M5-L5)+(M6-L6)+(M7-L7)+(M8-L8)+(M9-L9)+(M10-L10)+(M11-L11)+(M12-L12)+(M13-L13)+(E3-D3)+(E4-D4)+(E5-D5)+(E6-D6)+(E7-D7)+(E8-D8)+(E9-D9)+(E10-D10)+(E11-D11)+(E12-D12)+(E13-D13)</f>
-        <v>0.70138888888888884</v>
+        <v>0.87638888888888866</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="14.25" customHeight="1">
@@ -1224,7 +1265,7 @@
       <c r="R19" s="34"/>
       <c r="S19" s="44">
         <f>(K3-J3)+(K4-J4)+(K5-J5)+(K6-J6)+(K7-J7)+(K8-J8)+(K9-J9)+(K10-J10)+(K11-J11)+(K12-J12)+(K13-J13)+(E3-D3)+(E4-D4)+(E5-D5)+(E6-D6)+(E7-D7)+(E8-D8)+(E9-D9)+(E10-D10)+(E11-D11)+(E12-D12)+(E13-D13)</f>
-        <v>1.3263888888888888</v>
+        <v>1.3347222222222221</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="14.25" customHeight="1">
@@ -1234,7 +1275,7 @@
       <c r="R20" s="35"/>
       <c r="S20" s="40">
         <f>(I3-H3)+(I4-H4)+(I5-H5)+(I6-H6)+(I7-H7)+(I8-H8)+(I9-H9)+(I10-H10)+(I11-H11)+(I12-H12)+(I13-H13)+(E3-D3)+(E4-D4)+(E5-D5)+(E6-D6)+(E7-D7)+(E8-D8)+(E9-D9)+(E10-D10)+(E11-D11)+(E12-D12)+(E13-D13)</f>
-        <v>1.0138888888888888</v>
+        <v>1.8555555555555556</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="14.25" customHeight="1">
@@ -1247,7 +1288,7 @@
       <c r="R22" s="38"/>
       <c r="S22" s="46">
         <f>(E3-D3)+(E4-D4)+(E5-D5)+(E6-D6)+(E7-D7)+(E8-D8)+(E9-D9)+(E10-D10)+(E11-D11)+(E12-D12)+(E13-D13)</f>
-        <v>0.43055555555555547</v>
+        <v>0.43888888888888877</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="14.25" customHeight="1">
@@ -1263,7 +1304,7 @@
       <c r="R24" s="27"/>
       <c r="S24" s="41">
         <f>(Q3-P3)+(Q4-P4)+(Q5-P5)+(Q6-P6)+(Q7-P7)+(Q8-P8)+(Q9-P9)+(Q10-P10)+(Q11-P11)+(Q12-P12)+(Q13-P13)</f>
-        <v>0.58333333333333326</v>
+        <v>0.74999999999999989</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="14.25" customHeight="1">
@@ -1273,7 +1314,7 @@
       <c r="R25" s="31"/>
       <c r="S25" s="42">
         <f>(O3-N3)+(O4-N4)+(O5-N5)+(O6-N6)+(O7-N7)+(O8-N8)+(O9-N9)+(O10-N10)+(O11-N11)+(O12-N12)+(O13-N13)</f>
-        <v>0.65625</v>
+        <v>0.80208333333333326</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="14.25" customHeight="1">
@@ -1283,7 +1324,7 @@
       <c r="R26" s="33"/>
       <c r="S26" s="43">
         <f>(M3-L3)+(M4-L4)+(M5-L5)+(M6-L6)+(M7-L7)+(M8-L8)+(M9-L9)+(M10-L10)+(M11-L11)+(M12-L12)+(M13-L13)</f>
-        <v>0.27083333333333326</v>
+        <v>0.43749999999999989</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="14.25" customHeight="1">
@@ -1303,7 +1344,7 @@
       <c r="R28" s="35"/>
       <c r="S28" s="45">
         <f>(I3-H3)+(I4-H4)+(I5-H5)+(I6-H6)+(I7-H7)+(I8-H8)+(I9-H9)+(I10-H10)+(I11-H11)+(I12-H12)+(I13-H13)</f>
-        <v>0.58333333333333348</v>
+        <v>1.4166666666666667</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="14.25" customHeight="1"/>

--- a/Documentation/TimeAccounting_EECS448project.xlsx
+++ b/Documentation/TimeAccounting_EECS448project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miria\Desktop\eecs448\448_Project_1\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F813B036-CDE7-4BFA-BE5C-C9525891A459}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A71AB7C-E81A-46AF-A3BE-F2ED489721B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10500" yWindow="1177" windowWidth="11625" windowHeight="13950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10500" yWindow="450" windowWidth="11625" windowHeight="13950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -398,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -454,14 +454,15 @@
     <xf numFmtId="20" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="46" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -679,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="93" zoomScaleNormal="53" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6875" defaultRowHeight="15" customHeight="1"/>
@@ -693,18 +694,18 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56"/>
+      <c r="C1" s="57"/>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2"/>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="56"/>
+      <c r="G1" s="57"/>
       <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
@@ -725,10 +726,10 @@
         <v>8</v>
       </c>
       <c r="Q1" s="8"/>
-      <c r="R1" s="59" t="s">
+      <c r="R1" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="61">
+      <c r="S1" s="62">
         <f>R3+R4+R5+R6+R7+R8+R9+R10+R11+R12+R13</f>
         <v>4.4493055555555561</v>
       </c>
@@ -737,16 +738,16 @@
       <c r="A2" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="59"/>
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="57"/>
-      <c r="G2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
@@ -777,8 +778,8 @@
       <c r="Q2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="63"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1">
       <c r="A3" s="50">
@@ -1195,7 +1196,7 @@
       <c r="P13" s="22">
         <v>0.64583333333333337</v>
       </c>
-      <c r="Q13" s="62">
+      <c r="Q13" s="55">
         <v>0.8125</v>
       </c>
       <c r="R13" s="47">
